--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mycode\emer-testbed\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41FB44-184E-4110-97CC-AF85C94E23C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="12705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12708" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="tasks with area size" sheetId="3" r:id="rId3"/>
+    <sheet name="original task" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>select image average time</t>
   </si>
@@ -213,19 +228,40 @@
   </si>
   <si>
     <t>different response time</t>
+  </si>
+  <si>
+    <t>solvedPlace</t>
+  </si>
+  <si>
+    <t>areaSize</t>
+  </si>
+  <si>
+    <t>taskAmount</t>
+  </si>
+  <si>
+    <t>tasks solved locally</t>
+  </si>
+  <si>
+    <t>tasks solved remotely</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>without emer-fog</t>
+  </si>
+  <si>
+    <t>longest execution time</t>
+  </si>
+  <si>
+    <t>emer-fog without scheduling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,152 +269,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,192 +279,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -580,317 +292,105 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -901,10 +401,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1148,24 +648,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.5"/>
+    <col min="2" max="2" width="12.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" spans="1:2">
+    <row r="1" spans="1:9" ht="57.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
+    <row r="2" spans="1:9" ht="57.6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +681,7 @@
         <v>1.14345574378967</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:2">
+    <row r="3" spans="1:9" ht="57.6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +689,7 @@
         <v>0.228691148757934</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:9">
+    <row r="6" spans="1:9" ht="86.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,12 +718,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" ht="63.75" spans="1:1">
+    <row r="7" spans="1:9" ht="100.8">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1280,29 +780,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1438,22 +938,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="51" spans="1:7">
+    <row r="1" spans="1:7" ht="72">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1476,37 +974,37 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:1">
+    <row r="2" spans="1:7" ht="100.8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1514,18 +1012,631 @@
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" ht="63.75" spans="1:1">
+    <row r="23" spans="1:1" ht="86.4">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" ht="38.25" spans="1:1">
+    <row r="24" spans="1:1" ht="43.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6343ED6-F4B8-493F-A0CE-92CA161348EC}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>3500</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>3500</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557FBDEE-5A86-4FBF-82C5-EC2A93BC7B31}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <f>2.541579*F2/(B2/500)</f>
+        <v>5718.5527499999998</v>
+      </c>
+      <c r="E2">
+        <v>506</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2250</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.3981227636337199</v>
+      </c>
+      <c r="I2">
+        <f>H2+H3</f>
+        <v>2.5415785074233899</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <f>2.541579*15813/(3500/K2)</f>
+        <v>574.14269610000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">2.541579*F3/(B3/500)</f>
+        <v>5784.6338040000001</v>
+      </c>
+      <c r="E3">
+        <v>1025</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4552</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.14345574378967</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="1">2.541579*15813/(3500/K3)</f>
+        <v>1148.2853922000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>5754.1348560000006</v>
+      </c>
+      <c r="E4">
+        <v>1556</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6792</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2296.5707844000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5627.6913007499998</v>
+      </c>
+      <c r="E5">
+        <v>2026</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8857</v>
+      </c>
+      <c r="K5">
+        <v>250</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>2870.7134805000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5764.8094878000002</v>
+      </c>
+      <c r="E6">
+        <v>2492</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11341</v>
+      </c>
+      <c r="I6">
+        <v>2.5415785074233899</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3444.8561766000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5685.0886264999999</v>
+      </c>
+      <c r="E7">
+        <v>3095</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13421</v>
+      </c>
+      <c r="K7">
+        <v>350</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4018.9988727000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>3500</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5741.4269610000001</v>
+      </c>
+      <c r="E8">
+        <v>3671</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15813</v>
+      </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>4593.1415688000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="57.6">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <f>(3*1.39812276)+F2*1.14345574/(B2/500)</f>
+        <v>2576.9697832800002</v>
+      </c>
+      <c r="D9">
+        <f>3*1.34+(F2-E2)*1.14/(B2/500)</f>
+        <v>1992.1799999999998</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <f>3*1.4+15813*1.143/(3500/K9)</f>
+        <v>262.40370000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C15" si="2">(3*1.39812276)+F3*1.14345574/(B3/500)</f>
+        <v>2606.6996325200003</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D15" si="3">3*1.34+(F3-E3)*1.14/(B3/500)</f>
+        <v>2014.4099999999999</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L22" si="4">3*1.4+15813*1.143/(3500/K10)</f>
+        <v>520.6074000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>1500</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>2592.9781636400003</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1993.6999999999996</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>1037.0148000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>2536.0912405750005</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>1950.8549999999998</v>
+      </c>
+      <c r="K12">
+        <v>250</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1295.2185000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>2597.780677748</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>2021.5919999999996</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1553.4222000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>2561.9142827033334</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>1965.9599999999998</v>
+      </c>
+      <c r="K14">
+        <v>350</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1811.6259000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <v>3500</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>2587.2608849400003</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1981.4314285714283</v>
+      </c>
+      <c r="K15">
+        <v>400</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2069.8296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <f>3*1.4+(15813-3671)*1.143/(3500/K16)</f>
+        <v>202.46151428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L22" si="5">3*1.4+(15813-3671)*1.143/(3500/K17)</f>
+        <v>400.72302857142859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="K18">
+        <v>200</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>797.24605714285724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="K19">
+        <v>250</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>995.50757142857151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1"/>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>1193.7690857142859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="K21">
+        <v>350</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>1392.0306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="K22">
+        <v>400</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>1590.2921142857144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mycode\emer-testbed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41FB44-184E-4110-97CC-AF85C94E23C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70752751-63BB-4FE5-A283-78707DE75DB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12708" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1259,8 +1259,8 @@
         <v>50</v>
       </c>
       <c r="L2">
-        <f>2.541579*15813/(3500/K2)</f>
-        <v>574.14269610000008</v>
+        <f>2.541579*2233/(3500/K2)</f>
+        <v>81.076370100000005</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1285,8 +1285,8 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="1">2.541579*15813/(3500/K3)</f>
-        <v>1148.2853922000002</v>
+        <f t="shared" ref="L3:L8" si="1">2.541579*2233/(3500/K3)</f>
+        <v>162.15274020000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>2296.5707844000003</v>
+        <v>324.30548040000002</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>2870.7134805000001</v>
+        <v>405.38185049999998</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3444.8561766000003</v>
+        <v>486.4582206</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>4018.9988727000004</v>
+        <v>567.53459069999997</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>4593.1415688000006</v>
+        <v>648.61096080000004</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="57.6">
@@ -1427,8 +1427,8 @@
         <v>50</v>
       </c>
       <c r="L9">
-        <f>3*1.4+15813*1.143/(3500/K9)</f>
-        <v>262.40370000000001</v>
+        <f>3*1.4+2233*1.143/(3500/K9)</f>
+        <v>40.661699999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1448,8 +1448,8 @@
         <v>100</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L22" si="4">3*1.4+15813*1.143/(3500/K10)</f>
-        <v>520.6074000000001</v>
+        <f t="shared" ref="L10:L15" si="4">3*1.4+2233*1.143/(3500/K10)</f>
+        <v>77.123400000000004</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>1037.0148000000002</v>
+        <v>150.04679999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>1295.2185000000002</v>
+        <v>186.5085</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>1553.4222000000002</v>
+        <v>222.97020000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>1811.6259000000002</v>
+        <v>259.43189999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>2069.8296</v>
+        <v>295.89359999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1563,8 +1563,8 @@
         <v>50</v>
       </c>
       <c r="L16">
-        <f>3*1.4+(15813-3671)*1.143/(3500/K16)</f>
-        <v>202.46151428571429</v>
+        <f>3*1.4+(2233-517)*1.143/(3500/K16)</f>
+        <v>32.219828571428565</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1573,8 +1573,8 @@
         <v>100</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L22" si="5">3*1.4+(15813-3671)*1.143/(3500/K17)</f>
-        <v>400.72302857142859</v>
+        <f t="shared" ref="L17:L22" si="5">3*1.4+(2233-517)*1.143/(3500/K17)</f>
+        <v>60.239657142857141</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>797.24605714285724</v>
+        <v>116.27931428571428</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>995.50757142857151</v>
+        <v>144.29914285714284</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>1193.7690857142859</v>
+        <v>172.31897142857142</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>1392.0306</v>
+        <v>200.33879999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>1590.2921142857144</v>
+        <v>228.35862857142854</v>
       </c>
     </row>
     <row r="23" spans="1:12">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mycode\emer-testbed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70752751-63BB-4FE5-A283-78707DE75DB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D964A0-6DD5-4804-BD29-DC2FB8A4631A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12708" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -702,7 +702,7 @@
       <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1500</v>
       </c>
       <c r="F6">
@@ -722,11 +722,13 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>0</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
@@ -738,7 +740,7 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
@@ -764,7 +766,7 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
@@ -816,7 +818,7 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
@@ -842,7 +844,7 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
@@ -868,7 +870,7 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
@@ -894,7 +896,7 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F15" t="s">
@@ -920,7 +922,7 @@
       <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F16" t="s">
@@ -1211,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557FBDEE-5A86-4FBF-82C5-EC2A93BC7B31}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
